--- a/DATA/RAW/bond_data/os_PA6170016_Dubois.xlsx
+++ b/DATA/RAW/bond_data/os_PA6170016_Dubois.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubystanmyer/Box Sync/Shrinking Cities/data/bond_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19524\Box\Shrinking Cities MP\data\bond_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B8238E-89E0-FF46-85A8-461728E105DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97A7AF3-54C1-4270-BB00-28D052D233F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="11" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="17" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="fiscal" sheetId="16" r:id="rId18"/>
     <sheet name="assets" sheetId="20" r:id="rId19"/>
     <sheet name="revCollect" sheetId="15" r:id="rId20"/>
+    <sheet name="financialIndicators" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -50,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="324">
   <si>
     <t>PWSID</t>
   </si>
@@ -839,18 +842,358 @@
   </si>
   <si>
     <t>Only one page lists revenues and expenses for water and sewer specifically. However, it only lists one single year. This spreadsheet contains revenues + expenses for the whole city from 2006-2010</t>
+  </si>
+  <si>
+    <t>Line Item</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>Enter as shown in the Total Operating Revenues line</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>Enter as shown in the Total Operating Expenses line</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>Depreciation &amp; Amortization Expenses</t>
+  </si>
+  <si>
+    <t>Depreciation and amortization are listed as a line item within Operating Expenses</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>Debt Principal Payments</t>
+  </si>
+  <si>
+    <t>Enter $0 if there were no debt service payments</t>
+  </si>
+  <si>
+    <t>[4b]</t>
+  </si>
+  <si>
+    <t>Debt Interest Payments</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>Current Assets, excluding inventories, restricted cash, prepaids</t>
+  </si>
+  <si>
+    <t>Total Current Assets minus all inventories, prepaid items and any kind of restricted cash or restricted assets that cannot be used to pay for Current Liabilities</t>
+  </si>
+  <si>
+    <t>[6]</t>
+  </si>
+  <si>
+    <t>Current Liabilities, excluding deposits &amp; bond anticipation notes</t>
+  </si>
+  <si>
+    <t>Total Current Liabilities minus all refundable deposits and bond anticipation notes</t>
+  </si>
+  <si>
+    <t>[7]</t>
+  </si>
+  <si>
+    <t>Unrestricted Cash &amp; Investments</t>
+  </si>
+  <si>
+    <t>Unrestricted Cash &amp; Investments (and Cash Equivalents) is listed as a line item within Current Assets</t>
+  </si>
+  <si>
+    <t>[8]</t>
+  </si>
+  <si>
+    <t>Total Accumulated Depreciation</t>
+  </si>
+  <si>
+    <t>Total accumulated depreciation on capital assets being depreciated (buildings, equipment, other improvements) is usually shown in the Detail Notes on Capital Assets.</t>
+  </si>
+  <si>
+    <t>[9]</t>
+  </si>
+  <si>
+    <t>Total Depreciable Capital Assets</t>
+  </si>
+  <si>
+    <t>Enter the total value of capital assets being depreciated (buildings, equipment, othre improvements) only. Often listed in Detail Notes on Capital Assets.</t>
+  </si>
+  <si>
+    <t>[10]</t>
+  </si>
+  <si>
+    <t>[11]</t>
+  </si>
+  <si>
+    <t>[12]</t>
+  </si>
+  <si>
+    <t>Capital Spending</t>
+  </si>
+  <si>
+    <t>Enter Current PPE less Prior PPE + Depreciation</t>
+  </si>
+  <si>
+    <t>Indicators</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Operating Ratio (including depreciation)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">_[1]_ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[2]</t>
+    </r>
+  </si>
+  <si>
+    <t>Operating Ratio (not including depreciation)</t>
+  </si>
+  <si>
+    <r>
+      <t>___</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">___
+ [2] - [3] </t>
+    </r>
+  </si>
+  <si>
+    <t>Debt Service coverage ratio</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">_[1] -  [2] + [3] _
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[4] + [4b]</t>
+    </r>
+  </si>
+  <si>
+    <t>Quick Ratio</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">_[5]_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[6]</t>
+    </r>
+  </si>
+  <si>
+    <t>Days cash on hand</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">____[7]____
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(([2] - [3])/365)</t>
+    </r>
+  </si>
+  <si>
+    <t>Percent of capital assets depreciated</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">_[8]_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[9]</t>
+    </r>
+  </si>
+  <si>
+    <t>Debt to Equity Ratio</t>
+  </si>
+  <si>
+    <r>
+      <t>__</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[11]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>__
+( [10] - [11])</t>
+    </r>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Average plant age</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">_[8]_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[3]</t>
+    </r>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>Replacement ratio</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">_CapEx_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[3]</t>
+    </r>
+  </si>
+  <si>
+    <t>*in cases where accumulated depcreciation is not available, calculate as: 35 - (net PPE / annual depreciation expense)</t>
+  </si>
+  <si>
+    <t>**can also look in cash flow statement for capex value</t>
+  </si>
+  <si>
+    <t>This is a city, with no water authority information filled in</t>
+  </si>
+  <si>
+    <t>Skip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -901,6 +1244,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -946,11 +1319,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -996,10 +1370,40 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1279,27 +1683,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="10.77734375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>84</v>
       </c>
@@ -1310,7 +1714,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>179</v>
       </c>
@@ -1321,7 +1725,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>179</v>
       </c>
@@ -1332,7 +1736,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>179</v>
       </c>
@@ -1343,7 +1747,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>179</v>
       </c>
@@ -1354,7 +1758,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>260</v>
       </c>
@@ -1379,14 +1783,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" style="1"/>
-    <col min="4" max="4" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="3" width="8.77734375" style="1"/>
+    <col min="4" max="4" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1412,7 +1816,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -1439,17 +1843,17 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="1"/>
-    <col min="3" max="3" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.77734375" style="1"/>
+    <col min="3" max="3" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="7" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1497,20 +1901,20 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" style="1"/>
+    <col min="1" max="3" width="8.77734375" style="1"/>
     <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="1"/>
-    <col min="7" max="7" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="1"/>
+    <col min="5" max="5" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" style="1"/>
+    <col min="7" max="7" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" style="1"/>
     <col min="9" max="9" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="1"/>
+    <col min="10" max="10" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1564,12 +1968,12 @@
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1614,14 +2018,14 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" style="1"/>
-    <col min="4" max="4" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="3" width="8.77734375" style="1"/>
+    <col min="4" max="4" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1675,15 +2079,15 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="8.83203125" style="1"/>
-    <col min="5" max="5" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="4" width="8.77734375" style="1"/>
+    <col min="5" max="5" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1722,12 +2126,12 @@
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1781,12 +2185,12 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1845,23 +2249,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:AI33"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="Y23" sqref="Y23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" style="1"/>
+    <col min="1" max="3" width="8.77734375" style="1"/>
     <col min="4" max="4" width="18.6640625" style="1" customWidth="1"/>
-    <col min="5" max="22" width="8.83203125" style="1"/>
-    <col min="23" max="24" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="22" width="8.77734375" style="1"/>
+    <col min="23" max="24" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10.33203125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.83203125" style="1"/>
+    <col min="28" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="E1" s="10"/>
       <c r="F1" s="11" t="s">
         <v>33</v>
@@ -1899,7 +2303,7 @@
       <c r="AG1" s="13"/>
       <c r="AH1" s="13"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2006,7 +2410,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>68</v>
       </c>
@@ -2055,7 +2459,7 @@
       <c r="AH3" s="13"/>
       <c r="AI3" s="13"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>68</v>
       </c>
@@ -2104,7 +2508,7 @@
       <c r="AH4" s="13"/>
       <c r="AI4" s="13"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>68</v>
       </c>
@@ -2153,7 +2557,7 @@
       <c r="AH5" s="13"/>
       <c r="AI5" s="13"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>68</v>
       </c>
@@ -2202,7 +2606,7 @@
       <c r="AH6" s="13"/>
       <c r="AI6" s="13"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>68</v>
       </c>
@@ -2251,7 +2655,7 @@
       <c r="AH7" s="13"/>
       <c r="AI7" s="13"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>68</v>
       </c>
@@ -2300,7 +2704,7 @@
       <c r="AH8" s="13"/>
       <c r="AI8" s="13"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>68</v>
       </c>
@@ -2349,7 +2753,7 @@
       <c r="AH9" s="13"/>
       <c r="AI9" s="13"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>68</v>
       </c>
@@ -2385,7 +2789,7 @@
       <c r="AH10" s="13"/>
       <c r="AI10" s="13"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>68</v>
       </c>
@@ -2421,7 +2825,7 @@
       <c r="AH11" s="13"/>
       <c r="AI11" s="13"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>68</v>
       </c>
@@ -2457,7 +2861,7 @@
       <c r="AH12" s="13"/>
       <c r="AI12" s="13"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>68</v>
       </c>
@@ -2493,7 +2897,7 @@
       <c r="AH13" s="13"/>
       <c r="AI13" s="13"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
@@ -2627,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>70</v>
       </c>
@@ -2676,7 +3080,7 @@
       <c r="AH15" s="13"/>
       <c r="AI15" s="13"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
         <v>70</v>
       </c>
@@ -2725,7 +3129,7 @@
       <c r="AH16" s="13"/>
       <c r="AI16" s="13"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>70</v>
       </c>
@@ -2774,7 +3178,7 @@
       <c r="AH17" s="13"/>
       <c r="AI17" s="13"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>70</v>
       </c>
@@ -2823,7 +3227,7 @@
       <c r="AH18" s="13"/>
       <c r="AI18" s="13"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>70</v>
       </c>
@@ -2872,7 +3276,7 @@
       <c r="AH19" s="13"/>
       <c r="AI19" s="13"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>70</v>
       </c>
@@ -2926,7 +3330,7 @@
       <c r="AH20" s="13"/>
       <c r="AI20" s="13"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
@@ -3060,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
@@ -3194,7 +3598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>72</v>
       </c>
@@ -3245,7 +3649,7 @@
       <c r="AH23" s="13"/>
       <c r="AI23" s="13"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>72</v>
       </c>
@@ -3291,7 +3695,7 @@
       <c r="AH24" s="13"/>
       <c r="AI24" s="13"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>72</v>
       </c>
@@ -3327,7 +3731,7 @@
       <c r="AH25" s="13"/>
       <c r="AI25" s="13"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>72</v>
       </c>
@@ -3363,7 +3767,7 @@
       <c r="AH26" s="13"/>
       <c r="AI26" s="13"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>72</v>
       </c>
@@ -3399,7 +3803,7 @@
       <c r="AH27" s="13"/>
       <c r="AI27" s="13"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7" t="s">
@@ -3533,7 +3937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7" t="s">
@@ -3574,7 +3978,7 @@
       <c r="AH29" s="15"/>
       <c r="AI29" s="15"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7" t="s">
@@ -3615,7 +4019,7 @@
       <c r="AH30" s="15"/>
       <c r="AI30" s="15"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7" t="s">
@@ -3669,7 +4073,7 @@
       <c r="AH31" s="15"/>
       <c r="AI31" s="15"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7" t="s">
@@ -3720,7 +4124,7 @@
       <c r="AH32" s="15"/>
       <c r="AI32" s="15"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
@@ -3770,21 +4174,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:AJ54"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y51" sqref="Y51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="1"/>
-    <col min="3" max="3" width="27.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="1" customWidth="1"/>
-    <col min="5" max="25" width="8.83203125" style="1"/>
-    <col min="26" max="26" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="2" width="8.77734375" style="1"/>
+    <col min="3" max="3" width="27.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" style="1" customWidth="1"/>
+    <col min="5" max="25" width="8.77734375" style="1"/>
+    <col min="26" max="26" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="E1" s="10"/>
       <c r="F1" s="11" t="s">
         <v>33</v>
@@ -3822,7 +4226,7 @@
       <c r="AG1" s="13"/>
       <c r="AH1" s="13"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3932,7 +4336,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -3979,7 +4383,7 @@
       <c r="AH3" s="13"/>
       <c r="AI3" s="13"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -4026,7 +4430,7 @@
       <c r="AH4" s="13"/>
       <c r="AI4" s="13"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>182</v>
       </c>
@@ -4068,7 +4472,7 @@
       <c r="AH5" s="13"/>
       <c r="AI5" s="13"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>182</v>
       </c>
@@ -4110,7 +4514,7 @@
       <c r="AH6" s="13"/>
       <c r="AI6" s="13"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>182</v>
       </c>
@@ -4152,7 +4556,7 @@
       <c r="AH7" s="13"/>
       <c r="AI7" s="13"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>182</v>
       </c>
@@ -4194,7 +4598,7 @@
       <c r="AH8" s="13"/>
       <c r="AI8" s="13"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>182</v>
       </c>
@@ -4236,7 +4640,7 @@
       <c r="AH9" s="13"/>
       <c r="AI9" s="13"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>182</v>
       </c>
@@ -4278,7 +4682,7 @@
       <c r="AH10" s="13"/>
       <c r="AI10" s="13"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>182</v>
       </c>
@@ -4320,7 +4724,7 @@
       <c r="AH11" s="13"/>
       <c r="AI11" s="13"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>182</v>
       </c>
@@ -4365,7 +4769,7 @@
       <c r="AH12" s="13"/>
       <c r="AI12" s="13"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>182</v>
       </c>
@@ -4407,7 +4811,7 @@
       <c r="AH13" s="13"/>
       <c r="AI13" s="13"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>182</v>
       </c>
@@ -4450,7 +4854,7 @@
       <c r="AH14" s="15"/>
       <c r="AI14" s="15"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>182</v>
       </c>
@@ -4492,7 +4896,7 @@
       <c r="AH15" s="13"/>
       <c r="AI15" s="13"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>182</v>
       </c>
@@ -4534,7 +4938,7 @@
       <c r="AH16" s="13"/>
       <c r="AI16" s="13"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>182</v>
       </c>
@@ -4576,7 +4980,7 @@
       <c r="AH17" s="13"/>
       <c r="AI17" s="13"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>182</v>
       </c>
@@ -4618,7 +5022,7 @@
       <c r="AH18" s="13"/>
       <c r="AI18" s="13"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>182</v>
       </c>
@@ -4660,7 +5064,7 @@
       <c r="AH19" s="13"/>
       <c r="AI19" s="13"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>182</v>
       </c>
@@ -4702,7 +5106,7 @@
       <c r="AH20" s="13"/>
       <c r="AI20" s="13"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>182</v>
       </c>
@@ -4745,7 +5149,7 @@
       <c r="AH21" s="15"/>
       <c r="AI21" s="15"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>182</v>
       </c>
@@ -4788,7 +5192,7 @@
       <c r="AH22" s="16"/>
       <c r="AI22" s="16"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>182</v>
       </c>
@@ -4830,7 +5234,7 @@
       <c r="AH23" s="13"/>
       <c r="AI23" s="13"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>182</v>
       </c>
@@ -4872,7 +5276,7 @@
       <c r="AH24" s="13"/>
       <c r="AI24" s="13"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>182</v>
       </c>
@@ -4914,7 +5318,7 @@
       <c r="AH25" s="13"/>
       <c r="AI25" s="13"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>182</v>
       </c>
@@ -4956,7 +5360,7 @@
       <c r="AH26" s="13"/>
       <c r="AI26" s="13"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>182</v>
       </c>
@@ -4998,7 +5402,7 @@
       <c r="AH27" s="13"/>
       <c r="AI27" s="13"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>182</v>
       </c>
@@ -5041,7 +5445,7 @@
       <c r="AH28" s="15"/>
       <c r="AI28" s="15"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>182</v>
       </c>
@@ -5084,7 +5488,7 @@
       <c r="AH29" s="15"/>
       <c r="AI29" s="15"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>182</v>
       </c>
@@ -5131,7 +5535,7 @@
       <c r="AH30" s="15"/>
       <c r="AI30" s="15"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>182</v>
       </c>
@@ -5174,7 +5578,7 @@
       <c r="AH31" s="15"/>
       <c r="AI31" s="15"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>182</v>
       </c>
@@ -5217,7 +5621,7 @@
       <c r="AH32" s="15"/>
       <c r="AI32" s="15"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>182</v>
       </c>
@@ -5260,7 +5664,7 @@
       <c r="AH33" s="15"/>
       <c r="AI33" s="15"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>182</v>
       </c>
@@ -5271,7 +5675,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>182</v>
       </c>
@@ -5282,7 +5686,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>182</v>
       </c>
@@ -5293,7 +5697,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>182</v>
       </c>
@@ -5304,7 +5708,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>182</v>
       </c>
@@ -5315,7 +5719,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>182</v>
       </c>
@@ -5326,7 +5730,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>182</v>
       </c>
@@ -5337,7 +5741,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>182</v>
       </c>
@@ -5348,7 +5752,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>182</v>
       </c>
@@ -5363,7 +5767,7 @@
         <v>867164</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>182</v>
       </c>
@@ -5374,7 +5778,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>182</v>
       </c>
@@ -5385,7 +5789,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>182</v>
       </c>
@@ -5396,7 +5800,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>182</v>
       </c>
@@ -5407,7 +5811,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>182</v>
       </c>
@@ -5418,7 +5822,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>182</v>
       </c>
@@ -5517,7 +5921,7 @@
         <v>867164</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>182</v>
       </c>
@@ -5528,7 +5932,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>182</v>
       </c>
@@ -5539,7 +5943,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>182</v>
       </c>
@@ -5550,7 +5954,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>182</v>
       </c>
@@ -5561,7 +5965,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>182</v>
       </c>
@@ -5572,7 +5976,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>182</v>
       </c>
@@ -5596,17 +6000,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="8.83203125" style="1"/>
-    <col min="5" max="5" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="15" width="8.83203125" style="1"/>
+    <col min="1" max="4" width="8.77734375" style="1"/>
+    <col min="5" max="5" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="8.77734375" style="1"/>
     <col min="16" max="16" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.83203125" style="1"/>
+    <col min="17" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -5665,7 +6069,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -5731,12 +6135,12 @@
       <selection activeCell="L3" sqref="K2:L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5767,6 +6171,2006 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A981C1-08BB-44B5-AD3C-322A2AE94B7A}">
+  <dimension ref="A1:AK38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.88671875" customWidth="1"/>
+    <col min="2" max="2" width="61.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="2.5546875" customWidth="1"/>
+    <col min="5" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="27" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="10" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B1" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25">
+        <v>1986</v>
+      </c>
+      <c r="F1" s="25">
+        <v>1987</v>
+      </c>
+      <c r="G1" s="25">
+        <v>1988</v>
+      </c>
+      <c r="H1" s="25">
+        <v>1989</v>
+      </c>
+      <c r="I1" s="25">
+        <v>1990</v>
+      </c>
+      <c r="J1" s="25">
+        <v>1991</v>
+      </c>
+      <c r="K1" s="25">
+        <v>1992</v>
+      </c>
+      <c r="L1" s="25">
+        <v>1993</v>
+      </c>
+      <c r="M1" s="25">
+        <v>1994</v>
+      </c>
+      <c r="N1" s="25">
+        <v>1995</v>
+      </c>
+      <c r="O1" s="25">
+        <v>1996</v>
+      </c>
+      <c r="P1" s="25">
+        <v>1997</v>
+      </c>
+      <c r="Q1" s="25">
+        <v>1998</v>
+      </c>
+      <c r="R1" s="25">
+        <v>1999</v>
+      </c>
+      <c r="S1" s="25">
+        <v>2000</v>
+      </c>
+      <c r="T1" s="25">
+        <v>2001</v>
+      </c>
+      <c r="U1" s="25">
+        <v>2002</v>
+      </c>
+      <c r="V1" s="25">
+        <v>2003</v>
+      </c>
+      <c r="W1" s="25">
+        <v>2004</v>
+      </c>
+      <c r="X1" s="25">
+        <v>2005</v>
+      </c>
+      <c r="Y1" s="25">
+        <v>2006</v>
+      </c>
+      <c r="Z1" s="25">
+        <v>2007</v>
+      </c>
+      <c r="AA1" s="25">
+        <v>2008</v>
+      </c>
+      <c r="AB1" s="25">
+        <v>2009</v>
+      </c>
+      <c r="AC1" s="25">
+        <v>2010</v>
+      </c>
+      <c r="AD1" s="25">
+        <v>2011</v>
+      </c>
+      <c r="AE1" s="25">
+        <v>2012</v>
+      </c>
+      <c r="AF1" s="25">
+        <v>2013</v>
+      </c>
+      <c r="AG1" s="25">
+        <v>2014</v>
+      </c>
+      <c r="AH1" s="25">
+        <v>2015</v>
+      </c>
+      <c r="AI1" s="25">
+        <v>2016</v>
+      </c>
+      <c r="AJ1" s="25">
+        <v>2017</v>
+      </c>
+      <c r="AK1" s="25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+    </row>
+    <row r="5" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="29"/>
+      <c r="AI6" s="29"/>
+      <c r="AJ6" s="29"/>
+      <c r="AK6" s="29"/>
+    </row>
+    <row r="7" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="28"/>
+      <c r="AK7" s="28"/>
+    </row>
+    <row r="8" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="28"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="28"/>
+      <c r="AK8" s="28"/>
+    </row>
+    <row r="9" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>286</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="28"/>
+      <c r="AH10" s="28"/>
+      <c r="AI10" s="28"/>
+      <c r="AJ10" s="28"/>
+      <c r="AK10" s="28"/>
+    </row>
+    <row r="11" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>289</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="30"/>
+      <c r="AJ11" s="30"/>
+      <c r="AK11" s="30"/>
+    </row>
+    <row r="12" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>294</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="30"/>
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="30"/>
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="30"/>
+    </row>
+    <row r="16" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="D16" s="32"/>
+    </row>
+    <row r="17" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>299</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34" t="str">
+        <f>IFERROR(E2/E3, "")</f>
+        <v/>
+      </c>
+      <c r="F17" s="34" t="str">
+        <f>IFERROR(F2/F3, "")</f>
+        <v/>
+      </c>
+      <c r="G17" s="34" t="str">
+        <f>IFERROR(G2/G3, "")</f>
+        <v/>
+      </c>
+      <c r="H17" s="34" t="str">
+        <f>IFERROR(H2/H3, "")</f>
+        <v/>
+      </c>
+      <c r="I17" s="34" t="str">
+        <f>IFERROR(I2/I3, "")</f>
+        <v/>
+      </c>
+      <c r="J17" s="34" t="str">
+        <f>IFERROR(J2/J3, "")</f>
+        <v/>
+      </c>
+      <c r="K17" s="34" t="str">
+        <f>IFERROR(K2/K3, "")</f>
+        <v/>
+      </c>
+      <c r="L17" s="34" t="str">
+        <f>IFERROR(L2/L3, "")</f>
+        <v/>
+      </c>
+      <c r="M17" s="34" t="str">
+        <f>IFERROR(M2/M3, "")</f>
+        <v/>
+      </c>
+      <c r="N17" s="34" t="str">
+        <f>IFERROR(N2/N3, "")</f>
+        <v/>
+      </c>
+      <c r="O17" s="34" t="str">
+        <f>IFERROR(O2/O3, "")</f>
+        <v/>
+      </c>
+      <c r="P17" s="34" t="str">
+        <f>IFERROR(P2/P3, "")</f>
+        <v/>
+      </c>
+      <c r="Q17" s="34" t="str">
+        <f>IFERROR(Q2/Q3, "")</f>
+        <v/>
+      </c>
+      <c r="R17" s="34" t="str">
+        <f>IFERROR(R2/R3, "")</f>
+        <v/>
+      </c>
+      <c r="S17" s="34" t="str">
+        <f>IFERROR(S2/S3, "")</f>
+        <v/>
+      </c>
+      <c r="T17" s="34" t="str">
+        <f>IFERROR(T2/T3, "")</f>
+        <v/>
+      </c>
+      <c r="U17" s="34" t="str">
+        <f>IFERROR(U2/U3, "")</f>
+        <v/>
+      </c>
+      <c r="V17" s="34" t="str">
+        <f>IFERROR(V2/V3, "")</f>
+        <v/>
+      </c>
+      <c r="W17" s="34" t="str">
+        <f>IFERROR(W2/W3, "")</f>
+        <v/>
+      </c>
+      <c r="X17" s="34" t="str">
+        <f>IFERROR(X2/X3, "")</f>
+        <v/>
+      </c>
+      <c r="Y17" s="34" t="str">
+        <f>IFERROR(Y2/Y3, "")</f>
+        <v/>
+      </c>
+      <c r="Z17" s="34" t="str">
+        <f>IFERROR(Z2/Z3, "")</f>
+        <v/>
+      </c>
+      <c r="AA17" s="34" t="str">
+        <f>IFERROR(AA2/AA3, "")</f>
+        <v/>
+      </c>
+      <c r="AB17" s="34" t="str">
+        <f>IFERROR(AB2/AB3, "")</f>
+        <v/>
+      </c>
+      <c r="AC17" s="34" t="str">
+        <f>IFERROR(AC2/AC3, "")</f>
+        <v/>
+      </c>
+      <c r="AD17" s="34" t="str">
+        <f>IFERROR(AD2/AD3, "")</f>
+        <v/>
+      </c>
+      <c r="AE17" s="34" t="str">
+        <f>IFERROR(AE2/AE3, "")</f>
+        <v/>
+      </c>
+      <c r="AF17" s="34" t="str">
+        <f>IFERROR(AF2/AF3, "")</f>
+        <v/>
+      </c>
+      <c r="AG17" s="34" t="str">
+        <f>IFERROR(AG2/AG3, "")</f>
+        <v/>
+      </c>
+      <c r="AH17" s="34" t="str">
+        <f>IFERROR(AH2/AH3, "")</f>
+        <v/>
+      </c>
+      <c r="AI17" s="34" t="str">
+        <f>IFERROR(AI2/AI3, "")</f>
+        <v/>
+      </c>
+      <c r="AJ17" s="34" t="str">
+        <f>IFERROR(AJ2/AJ3, "")</f>
+        <v/>
+      </c>
+      <c r="AK17" s="34" t="str">
+        <f>IFERROR(AK2/AK3, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>301</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34" t="str">
+        <f>IFERROR(IF(E4="","",E2/(E3-E4)), "")</f>
+        <v/>
+      </c>
+      <c r="F18" s="34" t="str">
+        <f>IFERROR(IF(F4="","",F2/(F3-F4)), "")</f>
+        <v/>
+      </c>
+      <c r="G18" s="34" t="str">
+        <f>IFERROR(IF(G4="","",G2/(G3-G4)), "")</f>
+        <v/>
+      </c>
+      <c r="H18" s="34" t="str">
+        <f>IFERROR(IF(H4="","",H2/(H3-H4)), "")</f>
+        <v/>
+      </c>
+      <c r="I18" s="34" t="str">
+        <f>IFERROR(IF(I4="","",I2/(I3-I4)), "")</f>
+        <v/>
+      </c>
+      <c r="J18" s="34" t="str">
+        <f>IFERROR(IF(J4="","",J2/(J3-J4)), "")</f>
+        <v/>
+      </c>
+      <c r="K18" s="34" t="str">
+        <f>IFERROR(IF(K4="","",K2/(K3-K4)), "")</f>
+        <v/>
+      </c>
+      <c r="L18" s="34" t="str">
+        <f>IFERROR(IF(L4="","",L2/(L3-L4)), "")</f>
+        <v/>
+      </c>
+      <c r="M18" s="34" t="str">
+        <f>IFERROR(IF(M4="","",M2/(M3-M4)), "")</f>
+        <v/>
+      </c>
+      <c r="N18" s="34" t="str">
+        <f>IFERROR(IF(N4="","",N2/(N3-N4)), "")</f>
+        <v/>
+      </c>
+      <c r="O18" s="34" t="str">
+        <f>IFERROR(IF(O4="","",O2/(O3-O4)), "")</f>
+        <v/>
+      </c>
+      <c r="P18" s="34" t="str">
+        <f>IFERROR(IF(P4="","",P2/(P3-P4)), "")</f>
+        <v/>
+      </c>
+      <c r="Q18" s="34" t="str">
+        <f>IFERROR(IF(Q4="","",Q2/(Q3-Q4)), "")</f>
+        <v/>
+      </c>
+      <c r="R18" s="34" t="str">
+        <f>IFERROR(IF(R4="","",R2/(R3-R4)), "")</f>
+        <v/>
+      </c>
+      <c r="S18" s="34" t="str">
+        <f>IFERROR(IF(S4="","",S2/(S3-S4)), "")</f>
+        <v/>
+      </c>
+      <c r="T18" s="34" t="str">
+        <f>IFERROR(IF(T4="","",T2/(T3-T4)), "")</f>
+        <v/>
+      </c>
+      <c r="U18" s="34" t="str">
+        <f>IFERROR(IF(U4="","",U2/(U3-U4)), "")</f>
+        <v/>
+      </c>
+      <c r="V18" s="34" t="str">
+        <f>IFERROR(IF(V4="","",V2/(V3-V4)), "")</f>
+        <v/>
+      </c>
+      <c r="W18" s="34" t="str">
+        <f>IFERROR(IF(W4="","",W2/(W3-W4)), "")</f>
+        <v/>
+      </c>
+      <c r="X18" s="34" t="str">
+        <f>IFERROR(IF(X4="","",X2/(X3-X4)), "")</f>
+        <v/>
+      </c>
+      <c r="Y18" s="34" t="str">
+        <f>IFERROR(IF(Y4="","",Y2/(Y3-Y4)), "")</f>
+        <v/>
+      </c>
+      <c r="Z18" s="34" t="str">
+        <f>IFERROR(IF(Z4="","",Z2/(Z3-Z4)), "")</f>
+        <v/>
+      </c>
+      <c r="AA18" s="34" t="str">
+        <f>IFERROR(IF(AA4="","",AA2/(AA3-AA4)), "")</f>
+        <v/>
+      </c>
+      <c r="AB18" s="34" t="str">
+        <f>IFERROR(IF(AB4="","",AB2/(AB3-AB4)), "")</f>
+        <v/>
+      </c>
+      <c r="AC18" s="34" t="str">
+        <f>IFERROR(IF(AC4="","",AC2/(AC3-AC4)), "")</f>
+        <v/>
+      </c>
+      <c r="AD18" s="34" t="str">
+        <f>IFERROR(IF(AD4="","",AD2/(AD3-AD4)), "")</f>
+        <v/>
+      </c>
+      <c r="AE18" s="34" t="str">
+        <f>IFERROR(IF(AE4="","",AE2/(AE3-AE4)), "")</f>
+        <v/>
+      </c>
+      <c r="AF18" s="34" t="str">
+        <f>IFERROR(IF(AF4="","",AF2/(AF3-AF4)), "")</f>
+        <v/>
+      </c>
+      <c r="AG18" s="34" t="str">
+        <f>IFERROR(IF(AG4="","",AG2/(AG3-AG4)), "")</f>
+        <v/>
+      </c>
+      <c r="AH18" s="34" t="str">
+        <f>IFERROR(IF(AH4="","",AH2/(AH3-AH4)), "")</f>
+        <v/>
+      </c>
+      <c r="AI18" s="34" t="str">
+        <f>IFERROR(IF(AI4="","",AI2/(AI3-AI4)), "")</f>
+        <v/>
+      </c>
+      <c r="AJ18" s="34" t="str">
+        <f>IFERROR(IF(AJ4="","",AJ2/(AJ3-AJ4)), "")</f>
+        <v/>
+      </c>
+      <c r="AK18" s="34" t="str">
+        <f>IFERROR(IF(AK4="","",AK2/(AK3-AK4)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>303</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="D19" s="35"/>
+      <c r="E19" s="34" t="str">
+        <f>IF(E4="","",IF(E5="","",IF(E6="","",(E2-E3+E4)/(E5+E6))))</f>
+        <v/>
+      </c>
+      <c r="F19" s="34" t="str">
+        <f>IF(F4="","",IF(F5="","",IF(F6="","",(F2-F3+F4)/(F5+F6))))</f>
+        <v/>
+      </c>
+      <c r="G19" s="34" t="str">
+        <f>IF(G4="","",IF(G5="","",IF(G6="","",(G2-G3+G4)/(G5+G6))))</f>
+        <v/>
+      </c>
+      <c r="H19" s="34" t="str">
+        <f>IF(H4="","",IF(H5="","",IF(H6="","",(H2-H3+H4)/(H5+H6))))</f>
+        <v/>
+      </c>
+      <c r="I19" s="34" t="str">
+        <f>IF(I4="","",IF(I5="","",IF(I6="","",(I2-I3+I4)/(I5+I6))))</f>
+        <v/>
+      </c>
+      <c r="J19" s="34" t="str">
+        <f>IF(J4="","",IF(J5="","",IF(J6="","",(J2-J3+J4)/(J5+J6))))</f>
+        <v/>
+      </c>
+      <c r="K19" s="34" t="str">
+        <f>IF(K4="","",IF(K5="","",IF(K6="","",(K2-K3+K4)/(K5+K6))))</f>
+        <v/>
+      </c>
+      <c r="L19" s="34" t="str">
+        <f>IF(L4="","",IF(L5="","",IF(L6="","",(L2-L3+L4)/(L5+L6))))</f>
+        <v/>
+      </c>
+      <c r="M19" s="34" t="str">
+        <f>IF(M4="","",IF(M5="","",IF(M6="","",(M2-M3+M4)/(M5+M6))))</f>
+        <v/>
+      </c>
+      <c r="N19" s="34" t="str">
+        <f>IF(N4="","",IF(N5="","",IF(N6="","",(N2-N3+N4)/(N5+N6))))</f>
+        <v/>
+      </c>
+      <c r="O19" s="34" t="str">
+        <f>IF(O4="","",IF(O5="","",IF(O6="","",(O2-O3+O4)/(O5+O6))))</f>
+        <v/>
+      </c>
+      <c r="P19" s="34" t="str">
+        <f>IF(P4="","",IF(P5="","",IF(P6="","",(P2-P3+P4)/(P5+P6))))</f>
+        <v/>
+      </c>
+      <c r="Q19" s="34" t="str">
+        <f>IF(Q4="","",IF(Q5="","",IF(Q6="","",(Q2-Q3+Q4)/(Q5+Q6))))</f>
+        <v/>
+      </c>
+      <c r="R19" s="34" t="str">
+        <f>IF(R4="","",IF(R5="","",IF(R6="","",(R2-R3+R4)/(R5+R6))))</f>
+        <v/>
+      </c>
+      <c r="S19" s="34" t="str">
+        <f>IF(S4="","",IF(S5="","",IF(S6="","",(S2-S3+S4)/(S5+S6))))</f>
+        <v/>
+      </c>
+      <c r="T19" s="34" t="str">
+        <f>IF(T4="","",IF(T5="","",IF(T6="","",(T2-T3+T4)/(T5+T6))))</f>
+        <v/>
+      </c>
+      <c r="U19" s="34" t="str">
+        <f>IF(U4="","",IF(U5="","",IF(U6="","",(U2-U3+U4)/(U5+U6))))</f>
+        <v/>
+      </c>
+      <c r="V19" s="34" t="str">
+        <f>IF(V4="","",IF(V5="","",IF(V6="","",(V2-V3+V4)/(V5+V6))))</f>
+        <v/>
+      </c>
+      <c r="W19" s="34" t="str">
+        <f>IF(W4="","",IF(W5="","",IF(W6="","",(W2-W3+W4)/(W5+W6))))</f>
+        <v/>
+      </c>
+      <c r="X19" s="34" t="str">
+        <f>IF(X4="","",IF(X5="","",IF(X6="","",(X2-X3+X4)/(X5+X6))))</f>
+        <v/>
+      </c>
+      <c r="Y19" s="34" t="str">
+        <f>IF(Y4="","",IF(Y5="","",IF(Y6="","",(Y2-Y3+Y4)/(Y5+Y6))))</f>
+        <v/>
+      </c>
+      <c r="Z19" s="34" t="str">
+        <f>IF(Z4="","",IF(Z5="","",IF(Z6="","",(Z2-Z3+Z4)/(Z5+Z6))))</f>
+        <v/>
+      </c>
+      <c r="AA19" s="34" t="str">
+        <f>IF(AA4="","",IF(AA5="","",IF(AA6="","",(AA2-AA3+AA4)/(AA5+AA6))))</f>
+        <v/>
+      </c>
+      <c r="AB19" s="34" t="str">
+        <f>IF(AB4="","",IF(AB5="","",IF(AB6="","",(AB2-AB3+AB4)/(AB5+AB6))))</f>
+        <v/>
+      </c>
+      <c r="AC19" s="34" t="str">
+        <f>IF(AC4="","",IF(AC5="","",IF(AC6="","",(AC2-AC3+AC4)/(AC5+AC6))))</f>
+        <v/>
+      </c>
+      <c r="AD19" s="34" t="str">
+        <f>IF(AD4="","",IF(AD5="","",IF(AD6="","",(AD2-AD3+AD4)/(AD5+AD6))))</f>
+        <v/>
+      </c>
+      <c r="AE19" s="34" t="str">
+        <f>IF(AE4="","",IF(AE5="","",IF(AE6="","",(AE2-AE3+AE4)/(AE5+AE6))))</f>
+        <v/>
+      </c>
+      <c r="AF19" s="34" t="str">
+        <f>IF(AF4="","",IF(AF5="","",IF(AF6="","",(AF2-AF3+AF4)/(AF5+AF6))))</f>
+        <v/>
+      </c>
+      <c r="AG19" s="34" t="str">
+        <f>IF(AG4="","",IF(AG5="","",IF(AG6="","",(AG2-AG3+AG4)/(AG5+AG6))))</f>
+        <v/>
+      </c>
+      <c r="AH19" s="34" t="str">
+        <f>IF(AH4="","",IF(AH5="","",IF(AH6="","",(AH2-AH3+AH4)/(AH5+AH6))))</f>
+        <v/>
+      </c>
+      <c r="AI19" s="34" t="str">
+        <f>IF(AI4="","",IF(AI5="","",IF(AI6="","",(AI2-AI3+AI4)/(AI5+AI6))))</f>
+        <v/>
+      </c>
+      <c r="AJ19" s="34" t="str">
+        <f>IF(AJ4="","",IF(AJ5="","",IF(AJ6="","",(AJ2-AJ3+AJ4)/(AJ5+AJ6))))</f>
+        <v/>
+      </c>
+      <c r="AK19" s="34" t="str">
+        <f>IF(AK4="","",IF(AK5="","",IF(AK6="","",(AK2-AK3+AK4)/(AK5+AK6))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>305</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="D20" s="35"/>
+      <c r="E20" s="34" t="str">
+        <f>IFERROR(IF(E7=0,"",E7/E8), "")</f>
+        <v/>
+      </c>
+      <c r="F20" s="34" t="str">
+        <f t="shared" ref="F20:AK20" si="0">IFERROR(IF(F7=0,"",F7/F8), "")</f>
+        <v/>
+      </c>
+      <c r="G20" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H20" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I20" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J20" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K20" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L20" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M20" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N20" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O20" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P20" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q20" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R20" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S20" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T20" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="U20" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V20" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="W20" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X20" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y20" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Z20" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AA20" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB20" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AC20" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AD20" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AE20" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AF20" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AG20" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AH20" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI20" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AJ20" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AK20" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>307</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="D21" s="35"/>
+      <c r="E21" s="36" t="str">
+        <f>IFERROR(IF(E9=0,"",IF(E4="","",IF(E9="","",E9/((E3-E4)/365)))),"")</f>
+        <v/>
+      </c>
+      <c r="F21" s="36" t="str">
+        <f t="shared" ref="F21:AK21" si="1">IFERROR(IF(F9=0,"",IF(F4="","",IF(F9="","",F9/((F3-F4)/365)))),"")</f>
+        <v/>
+      </c>
+      <c r="G21" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H21" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I21" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J21" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K21" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L21" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M21" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N21" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O21" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P21" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q21" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R21" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S21" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T21" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U21" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V21" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W21" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X21" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y21" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z21" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AA21" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AB21" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AC21" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AD21" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AE21" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AF21" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AG21" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AH21" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AI21" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AJ21" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AK21" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>309</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="D22" s="35"/>
+      <c r="E22" s="37" t="str">
+        <f>IFERROR(IF(E10="","",E10/E11), "")</f>
+        <v/>
+      </c>
+      <c r="F22" s="37" t="str">
+        <f t="shared" ref="F22:AK22" si="2">IFERROR(IF(F10="","",F10/F11), "")</f>
+        <v/>
+      </c>
+      <c r="G22" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H22" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I22" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J22" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K22" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L22" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M22" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N22" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O22" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P22" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q22" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R22" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="S22" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T22" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="U22" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="V22" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W22" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X22" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y22" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Z22" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AA22" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AB22" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AC22" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AD22" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AE22" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AF22" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AG22" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH22" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AI22" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AJ22" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AK22" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>311</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34" t="str">
+        <f>IFERROR(IF(E12=0,"",IF(E13=0,"",E13/(E12-E13))),"")</f>
+        <v/>
+      </c>
+      <c r="F23" s="34" t="str">
+        <f t="shared" ref="F23:AK23" si="3">IFERROR(IF(F12=0,"",IF(F13=0,"",F13/(F12-F13))),"")</f>
+        <v/>
+      </c>
+      <c r="G23" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H23" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I23" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J23" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K23" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L23" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M23" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N23" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O23" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P23" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q23" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R23" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S23" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T23" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="U23" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V23" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="W23" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="X23" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Y23" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z23" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA23" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AB23" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AC23" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AD23" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AE23" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AF23" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AG23" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AH23" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AI23" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AJ23" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AK23" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>313</v>
+      </c>
+      <c r="B24" t="s">
+        <v>314</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="D24" s="35"/>
+      <c r="E24" s="38" t="str">
+        <f>IFERROR(IF(E10="","",IF(E10=0,"",E10/E4)),"")</f>
+        <v/>
+      </c>
+      <c r="F24" s="38" t="str">
+        <f>IFERROR(IF(F10="","",IF(F10=0,"",F10/F4)),"")</f>
+        <v/>
+      </c>
+      <c r="G24" s="38" t="str">
+        <f>IFERROR(IF(G10="","",IF(G10=0,"",G10/G4)),"")</f>
+        <v/>
+      </c>
+      <c r="H24" s="38" t="str">
+        <f>IFERROR(IF(H10="","",IF(H10=0,"",H10/H4)),"")</f>
+        <v/>
+      </c>
+      <c r="I24" s="38" t="str">
+        <f>IFERROR(IF(I10="","",IF(I10=0,"",I10/I4)),"")</f>
+        <v/>
+      </c>
+      <c r="J24" s="38" t="str">
+        <f>IFERROR(IF(J10="","",IF(J10=0,"",J10/J4)),"")</f>
+        <v/>
+      </c>
+      <c r="K24" s="38" t="str">
+        <f>IFERROR(IF(K10="","",IF(K10=0,"",K10/K4)),"")</f>
+        <v/>
+      </c>
+      <c r="L24" s="38" t="str">
+        <f>IFERROR(IF(L10="","",IF(L10=0,"",L10/L4)),"")</f>
+        <v/>
+      </c>
+      <c r="M24" s="38" t="str">
+        <f>IFERROR(IF(M10="","",IF(M10=0,"",M10/M4)),"")</f>
+        <v/>
+      </c>
+      <c r="N24" s="38" t="str">
+        <f>IFERROR(IF(N10="","",IF(N10=0,"",N10/N4)),"")</f>
+        <v/>
+      </c>
+      <c r="O24" s="38" t="str">
+        <f>IFERROR(IF(O10="","",IF(O10=0,"",O10/O4)),"")</f>
+        <v/>
+      </c>
+      <c r="P24" s="38" t="str">
+        <f>IFERROR(IF(P10="","",IF(P10=0,"",P10/P4)),"")</f>
+        <v/>
+      </c>
+      <c r="Q24" s="38" t="str">
+        <f>IFERROR(IF(Q10="","",IF(Q10=0,"",Q10/Q4)),"")</f>
+        <v/>
+      </c>
+      <c r="R24" s="38" t="str">
+        <f>IFERROR(IF(R10="","",IF(R10=0,"",R10/R4)),"")</f>
+        <v/>
+      </c>
+      <c r="S24" s="38" t="str">
+        <f>IFERROR(IF(S10="","",IF(S10=0,"",S10/S4)),"")</f>
+        <v/>
+      </c>
+      <c r="T24" s="38" t="str">
+        <f>IFERROR(IF(T10="","",IF(T10=0,"",T10/T4)),"")</f>
+        <v/>
+      </c>
+      <c r="U24" s="38" t="str">
+        <f>IFERROR(IF(U10="","",IF(U10=0,"",U10/U4)),"")</f>
+        <v/>
+      </c>
+      <c r="V24" s="38" t="str">
+        <f>IFERROR(IF(V10="","",IF(V10=0,"",V10/V4)),"")</f>
+        <v/>
+      </c>
+      <c r="W24" s="38" t="str">
+        <f>IFERROR(IF(W10="","",IF(W10=0,"",W10/W4)),"")</f>
+        <v/>
+      </c>
+      <c r="X24" s="38" t="str">
+        <f>IFERROR(IF(X10="","",IF(X10=0,"",X10/X4)),"")</f>
+        <v/>
+      </c>
+      <c r="Y24" s="38" t="str">
+        <f>IFERROR(IF(Y10="","",IF(Y10=0,"",Y10/Y4)),"")</f>
+        <v/>
+      </c>
+      <c r="Z24" s="38" t="str">
+        <f>IFERROR(IF(Z10="","",IF(Z10=0,"",Z10/Z4)),"")</f>
+        <v/>
+      </c>
+      <c r="AA24" s="38" t="str">
+        <f>IFERROR(IF(AA10="","",IF(AA10=0,"",AA10/AA4)),"")</f>
+        <v/>
+      </c>
+      <c r="AB24" s="38" t="str">
+        <f>IFERROR(IF(AB10="","",IF(AB10=0,"",AB10/AB4)),"")</f>
+        <v/>
+      </c>
+      <c r="AC24" s="38" t="str">
+        <f>IFERROR(IF(AC10="","",IF(AC10=0,"",AC10/AC4)),"")</f>
+        <v/>
+      </c>
+      <c r="AD24" s="38" t="str">
+        <f>IFERROR(IF(AD10="","",IF(AD10=0,"",AD10/AD4)),"")</f>
+        <v/>
+      </c>
+      <c r="AE24" s="38" t="str">
+        <f>IFERROR(IF(AE10="","",IF(AE10=0,"",AE10/AE4)),"")</f>
+        <v/>
+      </c>
+      <c r="AF24" s="38" t="str">
+        <f>IFERROR(IF(AF10="","",IF(AF10=0,"",AF10/AF4)),"")</f>
+        <v/>
+      </c>
+      <c r="AG24" s="38" t="str">
+        <f>IFERROR(IF(AG10="","",IF(AG10=0,"",AG10/AG4)),"")</f>
+        <v/>
+      </c>
+      <c r="AH24" s="38" t="str">
+        <f>IFERROR(IF(AH10="","",IF(AH10=0,"",AH10/AH4)),"")</f>
+        <v/>
+      </c>
+      <c r="AI24" s="38" t="str">
+        <f>IFERROR(IF(AI10="","",IF(AI10=0,"",AI10/AI4)),"")</f>
+        <v/>
+      </c>
+      <c r="AJ24" s="38" t="str">
+        <f>IFERROR(IF(AJ10="","",IF(AJ10=0,"",AJ10/AJ4)),"")</f>
+        <v/>
+      </c>
+      <c r="AK24" s="38" t="str">
+        <f>IFERROR(IF(AK10="","",IF(AK10=0,"",AK10/AK4)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>316</v>
+      </c>
+      <c r="B25" t="s">
+        <v>317</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="30" t="str">
+        <f>IFERROR(IF(E14=0,"",IF(E14&lt;0,"",E14)),"")</f>
+        <v/>
+      </c>
+      <c r="F25" s="30" t="str">
+        <f t="shared" ref="F25:AK25" si="4">IFERROR(IF(F14=0,"",IF(F14&lt;0,"",F14)),"")</f>
+        <v/>
+      </c>
+      <c r="G25" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H25" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I25" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J25" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K25" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L25" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M25" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N25" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O25" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P25" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q25" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R25" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="U25" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="V25" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W25" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="X25" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Y25" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Z25" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA25" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AB25" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AC25" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD25" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE25" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AF25" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AG25" s="30"/>
+      <c r="AH25" s="30"/>
+      <c r="AI25" s="30"/>
+      <c r="AJ25" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AK25" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>318</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="D26" s="33"/>
+      <c r="E26" s="37" t="str">
+        <f>IFERROR(IF(E25/E4=0, "",E25/E4),"")</f>
+        <v/>
+      </c>
+      <c r="F26" s="37" t="str">
+        <f t="shared" ref="F26:AK26" si="5">IFERROR(IF(F25/F4=0, "",F25/F4),"")</f>
+        <v/>
+      </c>
+      <c r="G26" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H26" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I26" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J26" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K26" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L26" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M26" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N26" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="O26" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P26" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q26" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="R26" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S26" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T26" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U26" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V26" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W26" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X26" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y26" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z26" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA26" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AB26" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC26" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD26" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AE26" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF26" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AG26" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AH26" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AI26" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AJ26" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AK26" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+    </row>
+    <row r="28" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="40" t="s">
+        <v>320</v>
+      </c>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>321</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5778,23 +8182,23 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.83203125" style="1"/>
-    <col min="4" max="4" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.77734375" style="1"/>
+    <col min="4" max="4" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="1"/>
+    <col min="7" max="7" width="8.77734375" style="1"/>
     <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" style="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="1"/>
+    <col min="13" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5835,7 +8239,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -5874,7 +8278,7 @@
         <v>100.30800000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -5913,7 +8317,7 @@
         <v>100.643</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -5952,7 +8356,7 @@
         <v>100.71</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>182</v>
       </c>
@@ -5991,7 +8395,7 @@
         <v>100.79900000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>182</v>
       </c>
@@ -6030,7 +8434,7 @@
         <v>100.562</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>182</v>
       </c>
@@ -6069,7 +8473,7 @@
         <v>100.407</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>182</v>
       </c>
@@ -6108,7 +8512,7 @@
         <v>99.521000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>182</v>
       </c>
@@ -6147,7 +8551,7 @@
         <v>99.272000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>182</v>
       </c>
@@ -6186,7 +8590,7 @@
         <v>99.186000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>182</v>
       </c>
@@ -6225,7 +8629,7 @@
         <v>99.1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>182</v>
       </c>
@@ -6264,7 +8668,7 @@
         <v>98.896000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>182</v>
       </c>
@@ -6303,7 +8707,7 @@
         <v>98.936000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>182</v>
       </c>
@@ -6342,7 +8746,7 @@
         <v>99.147000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>182</v>
       </c>
@@ -6381,7 +8785,7 @@
         <v>98.789000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>182</v>
       </c>
@@ -6420,7 +8824,7 @@
         <v>98.561000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>182</v>
       </c>
@@ -6459,7 +8863,7 @@
         <v>98.316000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>182</v>
       </c>
@@ -6498,7 +8902,7 @@
         <v>98.59</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>182</v>
       </c>
@@ -6537,7 +8941,7 @@
         <v>98.525000000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>182</v>
       </c>
@@ -6576,7 +8980,7 @@
         <v>98.465999999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>182</v>
       </c>
@@ -6615,7 +9019,7 @@
         <v>98.406999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>182</v>
       </c>
@@ -6654,7 +9058,7 @@
         <v>98.350999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>182</v>
       </c>
@@ -6693,7 +9097,7 @@
         <v>98.292000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>182</v>
       </c>
@@ -6732,7 +9136,7 @@
         <v>98.245000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>182</v>
       </c>
@@ -6771,7 +9175,7 @@
         <v>98.191999999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>182</v>
       </c>
@@ -6810,7 +9214,7 @@
         <v>97.683000000000007</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>182</v>
       </c>
@@ -6849,7 +9253,7 @@
         <v>98.096000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>182</v>
       </c>
@@ -6888,7 +9292,7 @@
         <v>98.317999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>182</v>
       </c>
@@ -6927,7 +9331,7 @@
         <v>98.317999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>182</v>
       </c>
@@ -6966,7 +9370,7 @@
         <v>98.317999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>182</v>
       </c>
@@ -7005,7 +9409,7 @@
         <v>98.317999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>182</v>
       </c>
@@ -7044,7 +9448,7 @@
         <v>98.317999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>182</v>
       </c>
@@ -7083,7 +9487,7 @@
         <v>98.317999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>182</v>
       </c>
@@ -7122,7 +9526,7 @@
         <v>98.317999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>182</v>
       </c>
@@ -7161,7 +9565,7 @@
         <v>98.317999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>182</v>
       </c>
@@ -7200,7 +9604,7 @@
         <v>97.397999999999996</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>182</v>
       </c>
@@ -7239,7 +9643,7 @@
         <v>97.397999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>182</v>
       </c>
@@ -7278,7 +9682,7 @@
         <v>97.397999999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>182</v>
       </c>
@@ -7317,7 +9721,7 @@
         <v>97.397999999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>182</v>
       </c>
@@ -7356,7 +9760,7 @@
         <v>97.397999999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>182</v>
       </c>
@@ -7395,7 +9799,7 @@
         <v>97.397999999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>182</v>
       </c>
@@ -7434,7 +9838,7 @@
         <v>97.397999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>182</v>
       </c>
@@ -7473,7 +9877,7 @@
         <v>97.397999999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>182</v>
       </c>
@@ -7512,7 +9916,7 @@
         <v>97.397999999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>182</v>
       </c>
@@ -7551,7 +9955,7 @@
         <v>97.397999999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>182</v>
       </c>
@@ -7590,7 +9994,7 @@
         <v>97.397999999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>182</v>
       </c>
@@ -7642,14 +10046,14 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" style="1"/>
+    <col min="1" max="3" width="8.77734375" style="1"/>
     <col min="4" max="4" width="16.33203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="5" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7669,7 +10073,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -7689,7 +10093,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -7706,7 +10110,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -7723,7 +10127,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>182</v>
       </c>
@@ -7740,10 +10144,10 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7"/>
     </row>
   </sheetData>
@@ -7759,16 +10163,16 @@
       <selection activeCell="A14" sqref="A14:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" style="1"/>
-    <col min="4" max="4" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="8.83203125" style="1"/>
+    <col min="1" max="3" width="8.77734375" style="1"/>
+    <col min="4" max="4" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="8.77734375" style="1"/>
     <col min="11" max="11" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.83203125" style="1"/>
+    <col min="12" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7809,7 +10213,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -7835,7 +10239,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -7861,7 +10265,7 @@
         <v>42778</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -7884,7 +10288,7 @@
         <v>24791</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>182</v>
       </c>
@@ -7907,7 +10311,7 @@
         <v>136700</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>182</v>
       </c>
@@ -7930,7 +10334,7 @@
         <v>126666</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>182</v>
       </c>
@@ -7953,7 +10357,7 @@
         <v>1181056</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>182</v>
       </c>
@@ -7976,7 +10380,7 @@
         <v>338722</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>182</v>
       </c>
@@ -7999,7 +10403,7 @@
         <v>1555461</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>182</v>
       </c>
@@ -8025,7 +10429,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>182</v>
       </c>
@@ -8048,7 +10452,7 @@
         <v>2211088</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>182</v>
       </c>
@@ -8071,7 +10475,7 @@
         <v>7500000</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>182</v>
       </c>
@@ -8094,7 +10498,7 @@
         <v>710400</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>182</v>
       </c>
@@ -8130,14 +10534,14 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="8.83203125" style="1"/>
+    <col min="1" max="8" width="8.77734375" style="1"/>
     <col min="9" max="9" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="1"/>
+    <col min="10" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -8169,7 +10573,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -8196,7 +10600,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -8220,7 +10624,7 @@
         <v>1344370</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -8244,7 +10648,7 @@
         <v>1351882</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>182</v>
       </c>
@@ -8268,7 +10672,7 @@
         <v>1328595</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>182</v>
       </c>
@@ -8292,7 +10696,7 @@
         <v>1296689</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>182</v>
       </c>
@@ -8316,7 +10720,7 @@
         <v>6436673</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>182</v>
       </c>
@@ -8340,7 +10744,7 @@
         <v>5789584</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>182</v>
       </c>
@@ -8364,7 +10768,7 @@
         <v>4781103</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>182</v>
       </c>
@@ -8401,17 +10805,17 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="1"/>
+    <col min="1" max="2" width="8.77734375" style="1"/>
     <col min="3" max="3" width="7" style="1" customWidth="1"/>
-    <col min="4" max="7" width="8.83203125" style="1"/>
-    <col min="8" max="8" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="7" width="8.77734375" style="1"/>
+    <col min="8" max="8" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8440,7 +10844,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -8468,17 +10872,17 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" style="1"/>
-    <col min="4" max="4" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="1"/>
-    <col min="6" max="6" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="8.77734375" style="1"/>
+    <col min="4" max="4" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="1"/>
+    <col min="6" max="6" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="1"/>
+    <col min="8" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -8504,7 +10908,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -8527,7 +10931,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -8547,7 +10951,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -8567,7 +10971,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>182</v>
       </c>
@@ -8587,7 +10991,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>182</v>
       </c>
@@ -8607,7 +11011,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>182</v>
       </c>
@@ -8627,7 +11031,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>182</v>
       </c>
@@ -8647,7 +11051,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>182</v>
       </c>
@@ -8680,26 +11084,26 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="8.83203125" style="1"/>
-    <col min="5" max="5" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="8.77734375" style="1"/>
+    <col min="5" max="5" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="1"/>
+    <col min="14" max="14" width="8.77734375" style="1"/>
     <col min="15" max="15" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.83203125" style="1"/>
+    <col min="18" max="18" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8764,7 +11168,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>182</v>
       </c>
